--- a/public/uploads/invoice/TT0001-Invoice1.xlsx
+++ b/public/uploads/invoice/TT0001-Invoice1.xlsx
@@ -52,7 +52,7 @@
     <t>TESTING001</t>
   </si>
   <si>
-    <t>02/06/2026</t>
+    <t>02/07/2026</t>
   </si>
   <si>
     <t>1258 Willingham Dr</t>
@@ -2276,16 +2276,16 @@
         <v>3600.0</v>
       </c>
       <c r="K16" s="119">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L16" s="118">
         <v>0.0</v>
       </c>
       <c r="M16" s="119">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="N16" s="118">
-        <v>0.0</v>
+        <v>720.0</v>
       </c>
       <c r="O16" s="119">
         <v>100.0</v>
@@ -2340,7 +2340,7 @@
         <v>0.0</v>
       </c>
       <c r="K17" s="119">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L17" s="118">
         <v>0.0</v>
@@ -2404,7 +2404,7 @@
         <v>0.0</v>
       </c>
       <c r="K18" s="119">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L18" s="118">
         <v>0.0</v>
@@ -2468,7 +2468,7 @@
         <v>0.0</v>
       </c>
       <c r="K19" s="119">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L19" s="118">
         <v>0.0</v>
@@ -2598,16 +2598,16 @@
         <v>400.0</v>
       </c>
       <c r="K22" s="119">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L22" s="118">
         <v>0.0</v>
       </c>
       <c r="M22" s="119">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="N22" s="118">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="O22" s="119">
         <v>200.0</v>
@@ -2696,7 +2696,7 @@
         <v>900.0</v>
       </c>
       <c r="K24" s="119">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L24" s="118">
         <v>0.0</v>
@@ -2760,7 +2760,7 @@
         <v>0.0</v>
       </c>
       <c r="K25" s="119">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L25" s="118">
         <v>0.0</v>
@@ -2858,7 +2858,7 @@
         <v>0.0</v>
       </c>
       <c r="K27" s="119">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L27" s="118">
         <v>0.0</v>
@@ -2922,7 +2922,7 @@
         <v>0.0</v>
       </c>
       <c r="K28" s="119">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L28" s="118">
         <v>0.0</v>
@@ -2986,7 +2986,7 @@
         <v>0.0</v>
       </c>
       <c r="K29" s="119">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L29" s="118">
         <v>0.0</v>
@@ -3084,7 +3084,7 @@
         <v>0.0</v>
       </c>
       <c r="K31" s="119">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L31" s="118">
         <v>0.0</v>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="N32" s="98">
         <f>SUM(N16:N31)</f>
-        <v>0</v>
+        <v>730</v>
       </c>
       <c r="O32" s="99" t="s">
         <v>54</v>
@@ -3193,7 +3193,7 @@
         <v>52</v>
       </c>
       <c r="J33" s="134">
-        <v>288.0</v>
+        <v>360.0</v>
       </c>
       <c r="K33" s="106"/>
       <c r="L33" s="7"/>
@@ -3206,7 +3206,7 @@
         <v>51</v>
       </c>
       <c r="S33" s="133">
-        <v>288.0</v>
+        <v>360.0</v>
       </c>
       <c r="T33" s="57"/>
       <c r="U33" s="110"/>
@@ -3231,7 +3231,7 @@
       </c>
       <c r="J34" s="134">
         <f>J32-J33</f>
-        <v>4612</v>
+        <v>4540</v>
       </c>
       <c r="K34" s="106"/>
       <c r="L34" s="108"/>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="S34" s="136">
         <f>S32-S33</f>
-        <v>4612</v>
+        <v>4540</v>
       </c>
       <c r="T34" s="1"/>
       <c r="U34" s="110"/>
